--- a/Marketing/uga.roomme.xlsx
+++ b/Marketing/uga.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/uga.roomme.xlsx
+++ b/Marketing/uga.roomme.xlsx
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/uga.roomme.xlsx
+++ b/Marketing/uga.roomme.xlsx
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">

--- a/Marketing/uga.roomme.xlsx
+++ b/Marketing/uga.roomme.xlsx
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/uga.roomme.xlsx
+++ b/Marketing/uga.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>specialkaycie</t>
+          <t>will.goodrich</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jennadantus</t>
+          <t>alexiscmckeever</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mbmully5</t>
+          <t>katelyn.anderson06</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>logansimon28</t>
+          <t>viviannhosier_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frida_alejandro_</t>
+          <t>ajsoutterr</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>maestockburger</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_trevor_f_</t>
+          <t>stefbaumblatt</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>libbyzavadil</t>
+          <t>ea_mckeever</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maddie.77777</t>
+          <t>marymartinstancil</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>camrynlaceyy</t>
+          <t>lucas.dunn24</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mahathiturlapati</t>
+          <t>pistoy8</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sarayureddyy</t>
+          <t>mckenzie.r.cook</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>roxanajonesschoen</t>
+          <t>nicolekryvor</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ranjani21</t>
+          <t>aedendocherty</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the.clarebear</t>
+          <t>oz_mcmurry</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rkitchin27</t>
+          <t>bella.leonard23</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lilytiradcamacho</t>
+          <t>maryannemomeh</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_lillyclark_</t>
+          <t>addisonkerr_</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>_.matty_mabry._</t>
+          <t>gehrig.rogers</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>zpeed_killz</t>
+          <t>leahjadesmith</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shannon_mw.esq</t>
+          <t>livanalekas</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jeffreyleeking</t>
+          <t>wilsonyoungg</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>calebkennedy_</t>
+          <t>kellyoquinn__</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>chuckgga</t>
+          <t>ellison.kennedy</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jackvoci37</t>
+          <t>lillymtaylor</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dannnroth</t>
+          <t>_willrb</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sanskruti_joshi05</t>
+          <t>ella.snyders</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>matthewlind8</t>
+          <t>shotbypenelope</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ninakilliannn</t>
+          <t>hannahaclement</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aryanachhabra</t>
+          <t>ava.neelyyyy</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>kate_carraher</t>
+          <t>swarit_b</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>robinpking</t>
+          <t>ryanthefryan</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>telluhu</t>
+          <t>lennasoesbe</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ayaaawwwnnn</t>
+          <t>addi_gentle</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>childish_gidbino</t>
+          <t>emmaarusnak</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>the.real.jack.cooney</t>
+          <t>maryfranmcg14</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>kathrynbuerk</t>
+          <t>katerdaniel</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rosestransky</t>
+          <t>sophia.tenebruso</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>maggie.fertig</t>
+          <t>katedrap</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>chip.nordlinger</t>
+          <t>emily.jayy13</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rachel__dav</t>
+          <t>bennwalterr</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ava_levine156</t>
+          <t>laurajaneyk</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mgrace419</t>
+          <t>rachellknighttt</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>get_ducked.uga</t>
+          <t>catebourbeau</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>carson.izzy</t>
+          <t>maggiehrogers</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>neeve_ram</t>
+          <t>chloemmcbroom</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ellebuckwell</t>
+          <t>dancer.sara.ann</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>lsf3977</t>
+          <t>tarynhalleyy</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>madelyn.segal</t>
+          <t>christinab.__</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>liamccurran</t>
+          <t>arihirsh</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>palak.jo</t>
+          <t>anniestrickland_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_24kkyle_</t>
+          <t>naviy_18</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_jennacho</t>
+          <t>sasha_e_villa</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jael_florescx</t>
+          <t>brookewaldenn_</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>leul_12345</t>
+          <t>abbybrink_</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>piercerosenhaft</t>
+          <t>_grace_frazier_</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nataliavdz1</t>
+          <t>jettlarson_</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>emmatraviss_</t>
+          <t>lillyshortz18</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>robert.clark27</t>
+          <t>mackenzieflammer</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>reaganpastor.27</t>
+          <t>ryleigh.romano</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>aespy49</t>
+          <t>maddenmendoza11</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>gujhg80</t>
+          <t>sarahkatesmith8305</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>noah.klugman</t>
+          <t>gianna.favilla</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mulnixchristy</t>
+          <t>neelaspangler_</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>222teagan</t>
+          <t>audrey_pursell</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ugafitcheck</t>
+          <t>libby.katherine05</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>a.grogongski</t>
+          <t>i_halaby</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>fvr.mike</t>
+          <t>laura__simmons</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>who_youbucco</t>
+          <t>lukephillips__</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>harrisonshinn</t>
+          <t>_hollisturner_</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jinhee_lee71</t>
+          <t>mia.tortilla06</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hunterclark1</t>
+          <t>ellen_rose_smith</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sweee_beee</t>
+          <t>ella.bowman06</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>avery.gunter</t>
+          <t>meghicks16</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ellakemmerly</t>
+          <t>gavin.pilger</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>angelagerguis</t>
+          <t>masonvwagner</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>queeruga</t>
+          <t>halloran.braden</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>astha_amin_</t>
+          <t>carlee.mattie</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vanessawenner</t>
+          <t>sivani_manchi</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>susan.p.harrill</t>
+          <t>hannahukleja</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>avaaa.hensley</t>
+          <t>henryw2022</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>katie.s.viera</t>
+          <t>evelynmcgowan_</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>madisonn_buckleyy</t>
+          <t>averyeng_</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>harperdaveyy</t>
+          <t>_jackiepenn</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>chiigoziee</t>
+          <t>elligrace.mitchell</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jasminenuts1</t>
+          <t>evawittmann5</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>_redden__belk</t>
+          <t>sofiadelamorax</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ryannn_rey</t>
+          <t>allison.witherington</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>swara_v0603</t>
+          <t>lolakateruss</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nayoungjoanne</t>
+          <t>wjgoad</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>debra_villatoro</t>
+          <t>_ellajohnson</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>melanie._.macias</t>
+          <t>_johnwagner_</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>excellent_writters1</t>
+          <t>skyehardy28_</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>gracemalia_</t>
+          <t>_dyllanadams</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>neoforce626</t>
+          <t>brittslumped</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>allyeichhorn</t>
+          <t>cadynohalloran</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>nah_its_mad</t>
+          <t>rachelgmay</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>smwilson2014</t>
+          <t>bri.hendersonn</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bennettstrohm</t>
+          <t>hannaawalterss</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dylan.foust</t>
+          <t>anusha.dhunganaa</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ahadpanjwani1</t>
+          <t>c_myers66</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ugaboxing</t>
+          <t>emily.ann.baker</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>grace._herman</t>
+          <t>virginiafrier</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>imberalex</t>
+          <t>yomom.32</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cdbgolf</t>
+          <t>emeryp.06</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cooper.reynolds14</t>
+          <t>cameronmiller__</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>clemsoncheryl</t>
+          <t>waltbeach</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sonja.sutcavage</t>
+          <t>_hannahpatel_</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lak.sheeesh</t>
+          <t>emilieoestreicher</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>carden_orr</t>
+          <t>madisonsinkhorn</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>uga.akdphi</t>
+          <t>madelyn.culver</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>uga_baseball4</t>
+          <t>catie.blackman</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>evan.thapa</t>
+          <t>londonosteen</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>katiekerseyy</t>
+          <t>plmoconnor828</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>annie_wog</t>
+          <t>laureniorioo</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>are.yufr</t>
+          <t>simons_collins</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>trishakattoju</t>
+          <t>rose.salus</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>evanmreed04</t>
+          <t>angelfrm.24</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>avafrankk</t>
+          <t>ellery.heath</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>juliannwebsterr</t>
+          <t>shae_h10</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>logan_mag</t>
+          <t>hollypeabody_</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>arriagauriel504</t>
+          <t>ashlynnmackinnon</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>molliebethj</t>
+          <t>elizabethpbrady</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>calibryann</t>
+          <t>hallie_nicole17</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>amandashay1974</t>
+          <t>tori_fosterr</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>monkey6173</t>
+          <t>dana_s_johnson</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>maye.finley</t>
+          <t>avasiegel_</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>mekhi.g9</t>
+          <t>bri.burkeee</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tajrian_hoque</t>
+          <t>lilikalish</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>brie630</t>
+          <t>famous_hamas</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,707 +1748,707 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>laurennkurtz</t>
+          <t>graciee.elizabeth</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>maddie_addy</t>
+          <t>brycebeckk</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>desireyosief</t>
+          <t>emgracemueller</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sarthigandhi</t>
+          <t>glendon.pumi</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>macybudke</t>
+          <t>edennjade</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>abby_noles</t>
+          <t>alyssa.mcbride05</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ansleydenton</t>
+          <t>_michaelaakk</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ambitiousambergrace</t>
+          <t>_janemcardle_</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>heyy.laurynnn</t>
+          <t>shakira.fz</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>turner.lent</t>
+          <t>harrisonhulsey_</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nadirathorpe</t>
+          <t>prisha.mody</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>grangers_real_acount</t>
+          <t>andrea_vases</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>delana25912</t>
+          <t>angelina.villamar</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>arshinoorani</t>
+          <t>harmsmulkey</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>karen07.cate</t>
+          <t>alexandrammiller</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kadir_kya5601</t>
+          <t>prestonbonn</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>selma.r.wood</t>
+          <t>brayden.smitty</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>r.ohan.s</t>
+          <t>annabreauxx</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>riley_alkire</t>
+          <t>categrdn</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>kat.martinn</t>
+          <t>robertblackburn1</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dmgood4</t>
+          <t>stellacantyy</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_meghancoleman</t>
+          <t>tyycald</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>elena.padoan</t>
+          <t>gabrielle_pettagrue</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cammyrutleykreis_</t>
+          <t>sydneyyminton</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>stormie_.lee</t>
+          <t>emmahechtt</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>jamesmargi_</t>
+          <t>livmaes</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>scottybgolfing</t>
+          <t>catiec0llins</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>d_kleinrock</t>
+          <t>emma.g.waters</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>colepittman314</t>
+          <t>daniel.cuervo.7</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>griffinmevans</t>
+          <t>mckenzieentrekin</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lily.f.stewart</t>
+          <t>brookesimm</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>chasesears1.2</t>
+          <t>conte_olivia</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>benwohlford</t>
+          <t>giannavarrone</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>emma.wittgraefe</t>
+          <t>regann.taylorr</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>canonbrookss</t>
+          <t>emilyhilsman71</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jjcooney9</t>
+          <t>cortwmay</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>chadillac_74</t>
+          <t>kayla.miyamoto</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>macy.plunkett</t>
+          <t>clinton_shaeffer</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>stephrovere</t>
+          <t>emily_.anne</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>amr.a54</t>
+          <t>emmet_lee</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>gracej_7</t>
+          <t>heidighiselli</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jay.bennett04</t>
+          <t>hannah.g.bradley</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>noa.shefler</t>
+          <t>anncaroldaniel</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>master_ap_22</t>
+          <t>sk.ingram</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>brittonhare</t>
+          <t>parkerpenleyy</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>iloveu2morr</t>
+          <t>lyla__hale</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>madelief.raasveldt</t>
+          <t>copelan.richardson</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>marc_petrucci</t>
+          <t>ameliacrowderr</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>fondalundy</t>
+          <t>annienivens_</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>jentamas1222</t>
+          <t>eryshia.thomas</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>michaelamulliss</t>
+          <t>macykrach</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>frank_liguori_42</t>
+          <t>averyyscribner</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_keelin.k_</t>
+          <t>ameliaedgar_</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jack_wilkens30</t>
+          <t>cheeseley01</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ava.gryta</t>
+          <t>ethan.cosmano</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>carriewtucker</t>
+          <t>kimlussbowman</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>just.alaya</t>
+          <t>brynnscottt</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>madiipinto</t>
+          <t>william.massey17</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>nicolemillican16</t>
+          <t>jackryannn2</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>indecisive_pebbles</t>
+          <t>finleymccash</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ju.lialeee</t>
+          <t>mcreebooth</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>alyssa.larence</t>
+          <t>addison_okeefe</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>noahlovekamp</t>
+          <t>ansley_hankinson</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ruby.douglas31</t>
+          <t>charlotte.bullingtonn</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>hautbois05</t>
+          <t>emilydgriffith</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>rowanmal</t>
+          <t>grayson.schutz</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ga_schuerman</t>
+          <t>camille.whitfield</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>caden_steinbauer</t>
+          <t>marym_walters</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>anniegnguyen</t>
+          <t>bellakutka</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>gabesosaa</t>
+          <t>katiee_hunt</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>jake_escher02</t>
+          <t>mckennarmay</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>lucycheng_</t>
+          <t>summervavra</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>carson.grizer</t>
+          <t>williamkartochian</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>paulina_alexandria.m</t>
+          <t>rebeca.rreyess</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>mothertemisan</t>
+          <t>graceefinkel</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>annaleatherwoodd</t>
+          <t>thecooperjacks</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>jonathanmlayton111</t>
+          <t>betsybierbaum</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>grace.nic0l</t>
+          <t>sarahcomen</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>megoingtotybee</t>
+          <t>annaratican</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>danalind44</t>
+          <t>sdale24</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sheepzie</t>
+          <t>racheljennings__</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>naseeracadmy90</t>
+          <t>kiley_powell06</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>mercerbraddy</t>
+          <t>kylieeholt1</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>rmateiu</t>
+          <t>tanvibollepalli</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ssinha29</t>
+          <t>taylorr.mason</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>clay.vaughan05</t>
+          <t>_katieschreiber</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>goingallin12_2</t>
+          <t>hannah_perky</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>kingsroad6417</t>
+          <t>marynellmoseley</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ella_grace_sloat</t>
+          <t>ellemjennings</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_keelybrooke_</t>
+          <t>dani.gaydosh</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>manish_chakka</t>
+          <t>_gracecolemann</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>allie_knight22</t>
+          <t>_julianaholl</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>nicp416</t>
+          <t>connor_hayes13</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ben.armstrong4</t>
+          <t>avimalexander</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>shivanipatel7883</t>
+          <t>lucythhomas</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>blakemischley</t>
+          <t>erinmwalkerrr</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>beth.rouse</t>
+          <t>samanthaa.stewart_</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ajeetha.05</t>
+          <t>harper_sinha</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ndsmoran</t>
+          <t>kenleighpenn</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>alinal.10</t>
+          <t>ally_stewart_</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ugaxmercedesbenzstadium</t>
+          <t>audrey.millerrr</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kristivisage</t>
+          <t>luke.dargan</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ray_villa_</t>
+          <t>_emmpaul</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>naveen_seedani</t>
+          <t>hunter_melton_</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>wood.elizabeth657</t>
+          <t>fiorashen</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>christinahanawalt</t>
+          <t>tiaelizabeth03</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>priya.j.jani</t>
+          <t>chloe_g128</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>kellyvetrano32</t>
+          <t>coraline.vaysse</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>oliviatyraaaa</t>
+          <t>kerryl_ann</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>yoshi_bear._</t>
+          <t>bethany_williamson1</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>wendylambley</t>
+          <t>alexandragriffooo</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>maviswang5</t>
+          <t>carlymacritchie</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sophiarhoadess</t>
+          <t>gabbygeringer</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>isabella_rnk</t>
+          <t>john_avino</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>kory.cote</t>
+          <t>emma_daxe06</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>samara_salameh10</t>
+          <t>emilypolk18</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>_kenziecline</t>
+          <t>lilymartinson</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>syd.owens</t>
+          <t>kate_nelms24</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>henrysol429</t>
+          <t>lexilexi2323</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>itsowenjohnston</t>
+          <t>c_tanner12</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>rebecca_bohn_</t>
+          <t>_kendallmiller0</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>carolinetom_</t>
+          <t>annabellarizzo9</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>camdyn.douglas</t>
+          <t>csalter06</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>limitlesspenguin</t>
+          <t>naomi_pearl11</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>claralawrence99</t>
+          <t>marywebb_22</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jasonkone29</t>
+          <t>ellewarren__</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>caromcmi1</t>
+          <t>bosie_miles</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>julietc_2215</t>
+          <t>caseymbutler</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ye.eun_han</t>
+          <t>_rachelmorse</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sammyharrisss</t>
+          <t>isabellaascottt</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>randompix_2020</t>
+          <t>elisemulkey</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>mxhienn</t>
+          <t>allie.joswick</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>a.wright0716</t>
+          <t>amandalaprill</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>stephen.tuite</t>
+          <t>megan.lamberson</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>mollylyncch</t>
+          <t>kaylinaveryy</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>crashtocashga</t>
+          <t>koknockout4</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>aria.kristen</t>
+          <t>vivianmlane</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>jordyn.macmillan</t>
+          <t>michaeljelinek.05</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>sofia.sss11</t>
+          <t>_salliecobb</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>caroline_kav</t>
+          <t>lillyclarkk</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>pearmbrust</t>
+          <t>leilaarz</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>william_wiley4</t>
+          <t>sibylhunterr</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>landonennis_</t>
+          <t>whugh22</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>drewstein19</t>
+          <t>llucylongg</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>zak.tilleryyy</t>
+          <t>carolinercarr</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>mugshots.athens</t>
+          <t>catherine.swistek</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>pscuga</t>
+          <t>samantha.grilli</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>therealgsu</t>
+          <t>delaney.chernault</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>vic._tori.aa</t>
+          <t>robertsaenzz</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>its_london_bo</t>
+          <t>camila.rod18</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>darshan_addepalli</t>
+          <t>jackie__foster</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sophiatownerr</t>
+          <t>makaylakontz_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>chase.connor24</t>
+          <t>ashleyyweinstein</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ericakeysland</t>
+          <t>abby.clardyy</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>bradleighgraham</t>
+          <t>liagigii</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_fsosajr</t>
+          <t>kmaples12</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>alicox1999</t>
+          <t>allie.gracep</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>reidshep</t>
+          <t>regan.kusiak</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ellentoms</t>
+          <t>keelygrayy</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_lexigracek</t>
+          <t>jonahbusinger</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jiyathomas16</t>
+          <t>_w_murphy</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>leller8491</t>
+          <t>_ryandann</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>back_2back2223</t>
+          <t>molly.muraski</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>tifwestbrook</t>
+          <t>sophiamoerschel</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>avice_.janae</t>
+          <t>annabellecastleberry</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>izzy12jacobs</t>
+          <t>only1.wealthy</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>maggie.pokorny</t>
+          <t>olivia.farrelll</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>anniesears73</t>
+          <t>allielangg</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>sarahannedejarnette</t>
+          <t>kamipjs27</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>rishixkumar</t>
+          <t>andrewr3538</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>itz_rileyyy_821</t>
+          <t>oliviaa.lucas</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>julia.shalev</t>
+          <t>wyatt.mahoney</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>poe999999</t>
+          <t>emmabfrank_</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>julia.lamberttt</t>
+          <t>hanna_lyons</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>bestmixedcurlyheadlightskin</t>
+          <t>lauren_brodsky</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sarahm19___</t>
+          <t>braelyn.johnsonn</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>laney.rice</t>
+          <t>tiller_johnson_</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>tracy.brobst</t>
+          <t>katiee.odette</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>_red1_lol</t>
+          <t>isab3llamachado</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>sathvikchilagani</t>
+          <t>petergroll133</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>igpesh</t>
+          <t>katiegill.12</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>abbymcwethy</t>
+          <t>_laurencohen</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>illiniwek33</t>
+          <t>chloerachlin</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ssamantha_herrera</t>
+          <t>helenathalo</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>sparrow.sketching</t>
+          <t>maddie.hennemuth</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>traymay55</t>
+          <t>siennastagen</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>vaugsper</t>
+          <t>jessica_kleiin</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>cooper_davis22</t>
+          <t>kate_nelson05</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ogletreebrian</t>
+          <t>cameron.j.mathis</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>hduffey</t>
+          <t>eileensimmons03</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ryley.oconnor</t>
+          <t>justin.baltuch</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>afafkh_</t>
+          <t>jayita.saha</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>itsroancerny</t>
+          <t>natashahavey</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>kkadorableness</t>
+          <t>skylar_paugh</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>shruti_chokshi</t>
+          <t>emma_blank_</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>uga.fine9</t>
+          <t>hav_ily_weaver</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>luna.cdx</t>
+          <t>emma.keith54</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>user_231879_</t>
+          <t>katyxolson</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>allyharris.1</t>
+          <t>maddie.cravens</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>dana.l.joyce</t>
+          <t>alexakoopman</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>shamsam._</t>
+          <t>auri.west</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>levi.n8167</t>
+          <t>savannah.stana_</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kristinkharrison2018</t>
+          <t>its.infinitely.ordinary.39</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>chrisdebby1</t>
+          <t>maddie_miller12</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>dell.sydney.11</t>
+          <t>madeline_drape</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>lissa.wilson_</t>
+          <t>jenna_simone_</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>katieebernhardt</t>
+          <t>lauren.burnett_</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>fernando.arriola8</t>
+          <t>omiemcgowan</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>maceygracee_</t>
+          <t>emily_tebeau</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>rithika_m12</t>
+          <t>jaclynhuzinec</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>aryarane_</t>
+          <t>sadie_.s</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>mrindsberg11</t>
+          <t>olivia.sneed</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>brayden.boone</t>
+          <t>katiekinnavy</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>aalexisallen</t>
+          <t>adrian.fleming9</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>mun73000</t>
+          <t>josiecrosse</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>nilam_sanjay_patel</t>
+          <t>liz.biederman</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>uga._.confessions</t>
+          <t>averyherrington_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>lucy_tipton_</t>
+          <t>micaelaprzeticky</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>alan_drucker</t>
+          <t>anviremella</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>akashsuruvu</t>
+          <t>maggie.mcraee</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>kennediedyer_</t>
+          <t>lilydulman</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>jlydia_es</t>
+          <t>jackie.wooodruff</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>leahh305</t>
+          <t>katieeckert19</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>logan.gilbert999</t>
+          <t>avaabryson</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ikonathens</t>
+          <t>avishmois</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>victor24gm</t>
+          <t>camille.hendry</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>isab3llamachado</t>
+          <t>alexandra.aalto</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>jmbrowles</t>
+          <t>cole_womack05</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>daway_elise</t>
+          <t>aerinupadhyay_</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>render_mcleod</t>
+          <t>emmy___sullivan</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>aubrey.sgmn</t>
+          <t>stratdunn</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>laurien_23</t>
+          <t>llluucyyy</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>frank_3911</t>
+          <t>courtneyygibbs</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>quinn_reese3636</t>
+          <t>nickh_25</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>lauren.harville</t>
+          <t>aliwagnon</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>maya_cherry21</t>
+          <t>tylerwu31</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ariana.miahh</t>
+          <t>buck_beltzer</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>maxniederjohn</t>
+          <t>juliaptay</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>butiq_andrea</t>
+          <t>katemmueller</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,10 +4138,1590 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>chasel_143</t>
+          <t>katherine_piroumian</t>
         </is>
       </c>
       <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>paul_siyoum</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>alyssaviccaro</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>art_turner_</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>maxtravis2</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ariana_pham_</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>mckenzziebrown</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>whipwhipwhipper</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>oliviaa.sullivann</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>gracee_louu</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>anna.reyzelman</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>trae.kirk</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>tatum_childress</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>stellamclaney</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>miahill05</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>emily.4man</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>jilliankoenig_</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>emilysheridan7</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>megan.eliz.baker</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ashton__graves</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>maryanglin_</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>sydneyfluent</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sydney.inserra</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>abbypike12</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>sarahwwilliamss</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ek_h_</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>mearachick</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>jemjoejjj</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>lucydellosso</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>sarah.bblack</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>bransondykes1</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>judeecarolyn</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>megan_snyder16</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>lizzywn_</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>jerzie_coots</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>tristanstavish</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>kohan.karm</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>sydneyshamp</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>eharman24</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>nicolescraft</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>magggiecm</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>reganekind</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>peytonbrueggemann</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>elle.greeson</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>vanessawanatt</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>madimaselli</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>danielatorunoo</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>hhannah.hoffman</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>brooke.miers</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>_graciefisherr</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>vale_cor_dova</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ellalouisedowd</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>bellebaker_</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>savannahe.7</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>mullins710</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>avery_halverson</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>chromeracer</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>jadenl.evans</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>makenzie.holley</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>prasoon_mitra</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>joslyn_vb</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>makenaginn</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>audreyksutton7</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>emmafrancesgibbs</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>isabellachaump</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>maggiemcdermott_</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>alexandrapsaenz</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>parker_osborne_</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>blakefritz_</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>sheaeparker</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>hrcrouse</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>lindsey.burklow</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>kat_leibz</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>larsonmia25</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>mias__17</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>fionawelsford</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>madisonn_buckleyy</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>natalie.s.alvarez</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>emmrobbinss_</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>evacastle70</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>haydenschreiber</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>gracieehucks</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>shanevictor25</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>kassc.15</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>avaperuginiii</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>marianamellen_</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>alysonblackhall</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ehsnsa</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>claraetnoyer</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>emma_isakbayev</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>rebecca.mmcadam</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>sarahmhenein</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>porterrominger</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>mledmundson_</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>madskowalski</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>oliviaa.hansen</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>chesneystanley</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>carol.llambert</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>katiepackk</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>kirastell</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>brady_logan_</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>emma.scheumann</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>suniaxiao</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>hannahwalllker</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>emmapgarner</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>grady.j.forslund</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>gracesullivann__</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>samsermonet9</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>katerina_papandon</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>sadieredmonddd</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>kennedy.robertss</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>alexis.danielle._</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>madelynmall</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>hayliemurphyy</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>annaprelipcean</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>veronicahufffman</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>tommy_schumacher</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>taylorviducic</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>_jessicaperry</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>audreyfullerton_</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>mrindsberg11</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>howard_liz</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>_kayceeanderson_</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>katie.taulbee</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>sambrosenthal</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>breannabofford</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>jennamodle</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>cole.adams10</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>andiesheahan</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>natalie.knudson</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>williamgrant5</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>annasandene</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>laurennkurtz</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>alli_waltman</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>mizaranorton</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>jackson.mccandless</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>elizathatcher_</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>reeseerusso</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>joel__regina</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>megandohertyy</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>_evelynberg</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>sampete06</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>carsonkessler_</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>lindseyeand3</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>maddiecaldwell__</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>hannah.yiii</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>christinaa__.__</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>mollyecourts_</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>_alliedicicco</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>victoria.hill9</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>abby.richardsonn</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>grace__hoekstra</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>skylarr_ward</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>reese.locascio</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>kayla.paxinos</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>_paulevans</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>kohan_davis04</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>cgilreath_55</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>aaron.cuppels</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
         <v>0</v>
       </c>
     </row>
